--- a/Resultados/RESULTADOS_13.xlsx
+++ b/Resultados/RESULTADOS_13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:Z31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,10 +573,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.49</v>
+        <v>1.02</v>
       </c>
       <c r="E2" t="n">
-        <v>67.18000000000001</v>
+        <v>97.84999999999999</v>
       </c>
       <c r="F2" t="n">
         <v>58.11</v>
@@ -655,10 +655,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="E3" t="n">
-        <v>46.57</v>
+        <v>57.01</v>
       </c>
       <c r="F3" t="n">
         <v>40.74</v>
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2.5</v>
+        <v>2.18</v>
       </c>
       <c r="E4" t="n">
-        <v>39.99</v>
+        <v>45.96</v>
       </c>
       <c r="F4" t="n">
         <v>35.38</v>
@@ -819,10 +819,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2.68</v>
+        <v>2.41</v>
       </c>
       <c r="E5" t="n">
-        <v>37.3</v>
+        <v>41.45</v>
       </c>
       <c r="F5" t="n">
         <v>33.17</v>
@@ -901,10 +901,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2.78</v>
+        <v>2.55</v>
       </c>
       <c r="E6" t="n">
-        <v>36.02</v>
+        <v>39.23</v>
       </c>
       <c r="F6" t="n">
         <v>32.15</v>
@@ -983,10 +983,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2.85</v>
+        <v>2.65</v>
       </c>
       <c r="E7" t="n">
-        <v>35.11</v>
+        <v>37.7</v>
       </c>
       <c r="F7" t="n">
         <v>31.41</v>
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2.93</v>
+        <v>2.76</v>
       </c>
       <c r="E8" t="n">
-        <v>34.13</v>
+        <v>36.27</v>
       </c>
       <c r="F8" t="n">
         <v>30.55</v>
@@ -1147,10 +1147,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2.91</v>
+        <v>2.76</v>
       </c>
       <c r="E9" t="n">
-        <v>34.32</v>
+        <v>36.21</v>
       </c>
       <c r="F9" t="n">
         <v>30.8</v>
@@ -1213,6 +1213,1810 @@
         <v>1</v>
       </c>
       <c r="Z9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>140</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="E10" t="n">
+        <v>35.53</v>
+      </c>
+      <c r="F10" t="n">
+        <v>30.43</v>
+      </c>
+      <c r="G10" t="n">
+        <v>43.48</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I10" t="n">
+        <v>42</v>
+      </c>
+      <c r="J10" t="n">
+        <v>289.94</v>
+      </c>
+      <c r="K10" t="n">
+        <v>60.56</v>
+      </c>
+      <c r="L10" t="n">
+        <v>9</v>
+      </c>
+      <c r="M10" t="n">
+        <v>40</v>
+      </c>
+      <c r="N10" t="n">
+        <v>80.38</v>
+      </c>
+      <c r="O10" t="n">
+        <v>35993.08</v>
+      </c>
+      <c r="P10" t="n">
+        <v>506.04</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R10" t="n">
+        <v>167.63</v>
+      </c>
+      <c r="S10" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T10" t="n">
+        <v>33315.84</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="X10" t="n">
+        <v>72.98</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>140</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="E11" t="n">
+        <v>35.01</v>
+      </c>
+      <c r="F11" t="n">
+        <v>30.18</v>
+      </c>
+      <c r="G11" t="n">
+        <v>48.93</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I11" t="n">
+        <v>37</v>
+      </c>
+      <c r="J11" t="n">
+        <v>291.98</v>
+      </c>
+      <c r="K11" t="n">
+        <v>60.56</v>
+      </c>
+      <c r="L11" t="n">
+        <v>10</v>
+      </c>
+      <c r="M11" t="n">
+        <v>35</v>
+      </c>
+      <c r="N11" t="n">
+        <v>81.42</v>
+      </c>
+      <c r="O11" t="n">
+        <v>36244.71</v>
+      </c>
+      <c r="P11" t="n">
+        <v>499.78</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R11" t="n">
+        <v>158.72</v>
+      </c>
+      <c r="S11" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T11" t="n">
+        <v>28886.54</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="X11" t="n">
+        <v>74.66</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>140</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="E12" t="n">
+        <v>34.71</v>
+      </c>
+      <c r="F12" t="n">
+        <v>30.03</v>
+      </c>
+      <c r="G12" t="n">
+        <v>53</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I12" t="n">
+        <v>34</v>
+      </c>
+      <c r="J12" t="n">
+        <v>294.03</v>
+      </c>
+      <c r="K12" t="n">
+        <v>60.56</v>
+      </c>
+      <c r="L12" t="n">
+        <v>11</v>
+      </c>
+      <c r="M12" t="n">
+        <v>32</v>
+      </c>
+      <c r="N12" t="n">
+        <v>82.48</v>
+      </c>
+      <c r="O12" t="n">
+        <v>36498.06</v>
+      </c>
+      <c r="P12" t="n">
+        <v>494.99</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R12" t="n">
+        <v>153.93</v>
+      </c>
+      <c r="S12" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T12" t="n">
+        <v>26507.37</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="X12" t="n">
+        <v>76.19</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>140</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="E13" t="n">
+        <v>34.39</v>
+      </c>
+      <c r="F13" t="n">
+        <v>29.87</v>
+      </c>
+      <c r="G13" t="n">
+        <v>57.82</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I13" t="n">
+        <v>31</v>
+      </c>
+      <c r="J13" t="n">
+        <v>296.1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>60.56</v>
+      </c>
+      <c r="L13" t="n">
+        <v>12</v>
+      </c>
+      <c r="M13" t="n">
+        <v>29</v>
+      </c>
+      <c r="N13" t="n">
+        <v>83.54000000000001</v>
+      </c>
+      <c r="O13" t="n">
+        <v>36753.16</v>
+      </c>
+      <c r="P13" t="n">
+        <v>490.05</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R13" t="n">
+        <v>148.51</v>
+      </c>
+      <c r="S13" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T13" t="n">
+        <v>23810.02</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="X13" t="n">
+        <v>77.56</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>140</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="E14" t="n">
+        <v>34.01</v>
+      </c>
+      <c r="F14" t="n">
+        <v>29.65</v>
+      </c>
+      <c r="G14" t="n">
+        <v>63.53</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I14" t="n">
+        <v>28</v>
+      </c>
+      <c r="J14" t="n">
+        <v>298.18</v>
+      </c>
+      <c r="K14" t="n">
+        <v>60.56</v>
+      </c>
+      <c r="L14" t="n">
+        <v>13</v>
+      </c>
+      <c r="M14" t="n">
+        <v>26</v>
+      </c>
+      <c r="N14" t="n">
+        <v>84.63</v>
+      </c>
+      <c r="O14" t="n">
+        <v>37010.06</v>
+      </c>
+      <c r="P14" t="n">
+        <v>483.79</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R14" t="n">
+        <v>140.51</v>
+      </c>
+      <c r="S14" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T14" t="n">
+        <v>19827.08</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="X14" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>140</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E15" t="n">
+        <v>33.93</v>
+      </c>
+      <c r="F15" t="n">
+        <v>29.67</v>
+      </c>
+      <c r="G15" t="n">
+        <v>68.48</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I15" t="n">
+        <v>26</v>
+      </c>
+      <c r="J15" t="n">
+        <v>300.28</v>
+      </c>
+      <c r="K15" t="n">
+        <v>60.56</v>
+      </c>
+      <c r="L15" t="n">
+        <v>14</v>
+      </c>
+      <c r="M15" t="n">
+        <v>24</v>
+      </c>
+      <c r="N15" t="n">
+        <v>85.73</v>
+      </c>
+      <c r="O15" t="n">
+        <v>37268.93</v>
+      </c>
+      <c r="P15" t="n">
+        <v>482.12</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R15" t="n">
+        <v>141.98</v>
+      </c>
+      <c r="S15" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T15" t="n">
+        <v>20569.87</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X15" t="n">
+        <v>79.87</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>140</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="E16" t="n">
+        <v>33.75</v>
+      </c>
+      <c r="F16" t="n">
+        <v>29.59</v>
+      </c>
+      <c r="G16" t="n">
+        <v>73.98999999999999</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="I16" t="n">
+        <v>24</v>
+      </c>
+      <c r="J16" t="n">
+        <v>302.39</v>
+      </c>
+      <c r="K16" t="n">
+        <v>60.56</v>
+      </c>
+      <c r="L16" t="n">
+        <v>15</v>
+      </c>
+      <c r="M16" t="n">
+        <v>22</v>
+      </c>
+      <c r="N16" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="O16" t="n">
+        <v>37529.55</v>
+      </c>
+      <c r="P16" t="n">
+        <v>477.84</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R16" t="n">
+        <v>139.07</v>
+      </c>
+      <c r="S16" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T16" t="n">
+        <v>19125.6</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X16" t="n">
+        <v>80.95999999999999</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>140</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="E17" t="n">
+        <v>33.62</v>
+      </c>
+      <c r="F17" t="n">
+        <v>29.52</v>
+      </c>
+      <c r="G17" t="n">
+        <v>77.02</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I17" t="n">
+        <v>23</v>
+      </c>
+      <c r="J17" t="n">
+        <v>304.52</v>
+      </c>
+      <c r="K17" t="n">
+        <v>60.56</v>
+      </c>
+      <c r="L17" t="n">
+        <v>16</v>
+      </c>
+      <c r="M17" t="n">
+        <v>21</v>
+      </c>
+      <c r="N17" t="n">
+        <v>87.97</v>
+      </c>
+      <c r="O17" t="n">
+        <v>37792.08</v>
+      </c>
+      <c r="P17" t="n">
+        <v>474.99</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R17" t="n">
+        <v>136.71</v>
+      </c>
+      <c r="S17" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T17" t="n">
+        <v>17951.96</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X17" t="n">
+        <v>81.98</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>140</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="E18" t="n">
+        <v>33.44</v>
+      </c>
+      <c r="F18" t="n">
+        <v>29.45</v>
+      </c>
+      <c r="G18" t="n">
+        <v>84.13</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I18" t="n">
+        <v>21</v>
+      </c>
+      <c r="J18" t="n">
+        <v>306.67</v>
+      </c>
+      <c r="K18" t="n">
+        <v>60.56</v>
+      </c>
+      <c r="L18" t="n">
+        <v>17</v>
+      </c>
+      <c r="M18" t="n">
+        <v>19</v>
+      </c>
+      <c r="N18" t="n">
+        <v>89.11</v>
+      </c>
+      <c r="O18" t="n">
+        <v>38056.58</v>
+      </c>
+      <c r="P18" t="n">
+        <v>471.31</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R18" t="n">
+        <v>133.99</v>
+      </c>
+      <c r="S18" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T18" t="n">
+        <v>16603.54</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X18" t="n">
+        <v>82.93000000000001</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>140</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" t="n">
+        <v>33.31</v>
+      </c>
+      <c r="F19" t="n">
+        <v>29.36</v>
+      </c>
+      <c r="G19" t="n">
+        <v>88.08</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I19" t="n">
+        <v>20</v>
+      </c>
+      <c r="J19" t="n">
+        <v>308.83</v>
+      </c>
+      <c r="K19" t="n">
+        <v>60.56</v>
+      </c>
+      <c r="L19" t="n">
+        <v>18</v>
+      </c>
+      <c r="M19" t="n">
+        <v>18</v>
+      </c>
+      <c r="N19" t="n">
+        <v>90.27</v>
+      </c>
+      <c r="O19" t="n">
+        <v>38323.08</v>
+      </c>
+      <c r="P19" t="n">
+        <v>468.36</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R19" t="n">
+        <v>131.06</v>
+      </c>
+      <c r="S19" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T19" t="n">
+        <v>15141.94</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X19" t="n">
+        <v>83.79000000000001</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>140</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="E20" t="n">
+        <v>33.13</v>
+      </c>
+      <c r="F20" t="n">
+        <v>29.23</v>
+      </c>
+      <c r="G20" t="n">
+        <v>92.31</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I20" t="n">
+        <v>19</v>
+      </c>
+      <c r="J20" t="n">
+        <v>311.01</v>
+      </c>
+      <c r="K20" t="n">
+        <v>60.56</v>
+      </c>
+      <c r="L20" t="n">
+        <v>19</v>
+      </c>
+      <c r="M20" t="n">
+        <v>17</v>
+      </c>
+      <c r="N20" t="n">
+        <v>91.45</v>
+      </c>
+      <c r="O20" t="n">
+        <v>38591.62</v>
+      </c>
+      <c r="P20" t="n">
+        <v>463.01</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R20" t="n">
+        <v>126.47</v>
+      </c>
+      <c r="S20" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T20" t="n">
+        <v>12849</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X20" t="n">
+        <v>84.51000000000001</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>140</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="E21" t="n">
+        <v>33.15</v>
+      </c>
+      <c r="F21" t="n">
+        <v>29.31</v>
+      </c>
+      <c r="G21" t="n">
+        <v>97.70999999999999</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I21" t="n">
+        <v>18</v>
+      </c>
+      <c r="J21" t="n">
+        <v>313.2</v>
+      </c>
+      <c r="K21" t="n">
+        <v>60.56</v>
+      </c>
+      <c r="L21" t="n">
+        <v>20</v>
+      </c>
+      <c r="M21" t="n">
+        <v>16</v>
+      </c>
+      <c r="N21" t="n">
+        <v>92.65000000000001</v>
+      </c>
+      <c r="O21" t="n">
+        <v>38862.4</v>
+      </c>
+      <c r="P21" t="n">
+        <v>463.21</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R21" t="n">
+        <v>129.38</v>
+      </c>
+      <c r="S21" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T21" t="n">
+        <v>14309.86</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X21" t="n">
+        <v>85.31999999999999</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>140</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="E22" t="n">
+        <v>33.06</v>
+      </c>
+      <c r="F22" t="n">
+        <v>29.27</v>
+      </c>
+      <c r="G22" t="n">
+        <v>103.3</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="I22" t="n">
+        <v>17</v>
+      </c>
+      <c r="J22" t="n">
+        <v>315.41</v>
+      </c>
+      <c r="K22" t="n">
+        <v>60.56</v>
+      </c>
+      <c r="L22" t="n">
+        <v>21</v>
+      </c>
+      <c r="M22" t="n">
+        <v>15</v>
+      </c>
+      <c r="N22" t="n">
+        <v>93.86</v>
+      </c>
+      <c r="O22" t="n">
+        <v>39135.2</v>
+      </c>
+      <c r="P22" t="n">
+        <v>459.88</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R22" t="n">
+        <v>128.07</v>
+      </c>
+      <c r="S22" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T22" t="n">
+        <v>13662.03</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="X22" t="n">
+        <v>86.09</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>140</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="E23" t="n">
+        <v>32.94</v>
+      </c>
+      <c r="F23" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="G23" t="n">
+        <v>109.51</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I23" t="n">
+        <v>16</v>
+      </c>
+      <c r="J23" t="n">
+        <v>317.64</v>
+      </c>
+      <c r="K23" t="n">
+        <v>60.56</v>
+      </c>
+      <c r="L23" t="n">
+        <v>22</v>
+      </c>
+      <c r="M23" t="n">
+        <v>14</v>
+      </c>
+      <c r="N23" t="n">
+        <v>95.09</v>
+      </c>
+      <c r="O23" t="n">
+        <v>39410.2</v>
+      </c>
+      <c r="P23" t="n">
+        <v>456.38</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R23" t="n">
+        <v>125.75</v>
+      </c>
+      <c r="S23" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T23" t="n">
+        <v>12506.38</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="X23" t="n">
+        <v>86.79000000000001</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>140</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="E24" t="n">
+        <v>32.93</v>
+      </c>
+      <c r="F24" t="n">
+        <v>29.19</v>
+      </c>
+      <c r="G24" t="n">
+        <v>109.46</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="I24" t="n">
+        <v>16</v>
+      </c>
+      <c r="J24" t="n">
+        <v>319.89</v>
+      </c>
+      <c r="K24" t="n">
+        <v>60.56</v>
+      </c>
+      <c r="L24" t="n">
+        <v>23</v>
+      </c>
+      <c r="M24" t="n">
+        <v>14</v>
+      </c>
+      <c r="N24" t="n">
+        <v>96.34</v>
+      </c>
+      <c r="O24" t="n">
+        <v>39687.46</v>
+      </c>
+      <c r="P24" t="n">
+        <v>453.7</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R24" t="n">
+        <v>125.4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T24" t="n">
+        <v>12329.02</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="X24" t="n">
+        <v>87.48</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>140</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="E25" t="n">
+        <v>32.84</v>
+      </c>
+      <c r="F25" t="n">
+        <v>29.15</v>
+      </c>
+      <c r="G25" t="n">
+        <v>116.61</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I25" t="n">
+        <v>15</v>
+      </c>
+      <c r="J25" t="n">
+        <v>322.16</v>
+      </c>
+      <c r="K25" t="n">
+        <v>60.56</v>
+      </c>
+      <c r="L25" t="n">
+        <v>24</v>
+      </c>
+      <c r="M25" t="n">
+        <v>13</v>
+      </c>
+      <c r="N25" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="O25" t="n">
+        <v>39967.02</v>
+      </c>
+      <c r="P25" t="n">
+        <v>451.52</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R25" t="n">
+        <v>124.03</v>
+      </c>
+      <c r="S25" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T25" t="n">
+        <v>11652.28</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="X25" t="n">
+        <v>88.12</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>140</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="E26" t="n">
+        <v>32.64</v>
+      </c>
+      <c r="F26" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="G26" t="n">
+        <v>124.31</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="I26" t="n">
+        <v>14</v>
+      </c>
+      <c r="J26" t="n">
+        <v>324.44</v>
+      </c>
+      <c r="K26" t="n">
+        <v>60.56</v>
+      </c>
+      <c r="L26" t="n">
+        <v>25</v>
+      </c>
+      <c r="M26" t="n">
+        <v>12</v>
+      </c>
+      <c r="N26" t="n">
+        <v>98.89</v>
+      </c>
+      <c r="O26" t="n">
+        <v>40249.08</v>
+      </c>
+      <c r="P26" t="n">
+        <v>446.19</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R26" t="n">
+        <v>119.08</v>
+      </c>
+      <c r="S26" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T26" t="n">
+        <v>9180.530000000001</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="X26" t="n">
+        <v>88.63</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>140</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="E27" t="n">
+        <v>32.81</v>
+      </c>
+      <c r="F27" t="n">
+        <v>29.18</v>
+      </c>
+      <c r="G27" t="n">
+        <v>125.04</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="I27" t="n">
+        <v>14</v>
+      </c>
+      <c r="J27" t="n">
+        <v>326.75</v>
+      </c>
+      <c r="K27" t="n">
+        <v>60.56</v>
+      </c>
+      <c r="L27" t="n">
+        <v>26</v>
+      </c>
+      <c r="M27" t="n">
+        <v>12</v>
+      </c>
+      <c r="N27" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="O27" t="n">
+        <v>40533.46</v>
+      </c>
+      <c r="P27" t="n">
+        <v>446.61</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1194.86</v>
+      </c>
+      <c r="R27" t="n">
+        <v>125.03</v>
+      </c>
+      <c r="S27" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T27" t="n">
+        <v>12158.51</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="X27" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>140</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="E28" t="n">
+        <v>32.65</v>
+      </c>
+      <c r="F28" t="n">
+        <v>29.07</v>
+      </c>
+      <c r="G28" t="n">
+        <v>134.18</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="I28" t="n">
+        <v>13</v>
+      </c>
+      <c r="J28" t="n">
+        <v>329.08</v>
+      </c>
+      <c r="K28" t="n">
+        <v>60.56</v>
+      </c>
+      <c r="L28" t="n">
+        <v>27</v>
+      </c>
+      <c r="M28" t="n">
+        <v>11</v>
+      </c>
+      <c r="N28" t="n">
+        <v>101.52</v>
+      </c>
+      <c r="O28" t="n">
+        <v>40820.32</v>
+      </c>
+      <c r="P28" t="n">
+        <v>443.33</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R28" t="n">
+        <v>121.37</v>
+      </c>
+      <c r="S28" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T28" t="n">
+        <v>10330.73</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="X28" t="n">
+        <v>89.87</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>140</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="E29" t="n">
+        <v>32.65</v>
+      </c>
+      <c r="F29" t="n">
+        <v>29.07</v>
+      </c>
+      <c r="G29" t="n">
+        <v>134.18</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="I29" t="n">
+        <v>13</v>
+      </c>
+      <c r="J29" t="n">
+        <v>331.42</v>
+      </c>
+      <c r="K29" t="n">
+        <v>60.56</v>
+      </c>
+      <c r="L29" t="n">
+        <v>28</v>
+      </c>
+      <c r="M29" t="n">
+        <v>11</v>
+      </c>
+      <c r="N29" t="n">
+        <v>102.87</v>
+      </c>
+      <c r="O29" t="n">
+        <v>41109.75</v>
+      </c>
+      <c r="P29" t="n">
+        <v>442.41</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R29" t="n">
+        <v>121.37</v>
+      </c>
+      <c r="S29" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T29" t="n">
+        <v>10331.29</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="X29" t="n">
+        <v>90.44</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>140</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="E30" t="n">
+        <v>32.53</v>
+      </c>
+      <c r="F30" t="n">
+        <v>29</v>
+      </c>
+      <c r="G30" t="n">
+        <v>145.02</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I30" t="n">
+        <v>12</v>
+      </c>
+      <c r="J30" t="n">
+        <v>333.79</v>
+      </c>
+      <c r="K30" t="n">
+        <v>60.56</v>
+      </c>
+      <c r="L30" t="n">
+        <v>29</v>
+      </c>
+      <c r="M30" t="n">
+        <v>10</v>
+      </c>
+      <c r="N30" t="n">
+        <v>104.24</v>
+      </c>
+      <c r="O30" t="n">
+        <v>41401.93</v>
+      </c>
+      <c r="P30" t="n">
+        <v>438.25</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R30" t="n">
+        <v>119.09</v>
+      </c>
+      <c r="S30" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T30" t="n">
+        <v>9197.9</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="X30" t="n">
+        <v>90.94</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>140</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="E31" t="n">
+        <v>32.48</v>
+      </c>
+      <c r="F31" t="n">
+        <v>28.95</v>
+      </c>
+      <c r="G31" t="n">
+        <v>144.76</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="I31" t="n">
+        <v>12</v>
+      </c>
+      <c r="J31" t="n">
+        <v>336.18</v>
+      </c>
+      <c r="K31" t="n">
+        <v>60.56</v>
+      </c>
+      <c r="L31" t="n">
+        <v>30</v>
+      </c>
+      <c r="M31" t="n">
+        <v>10</v>
+      </c>
+      <c r="N31" t="n">
+        <v>105.63</v>
+      </c>
+      <c r="O31" t="n">
+        <v>41696.71</v>
+      </c>
+      <c r="P31" t="n">
+        <v>433.6</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R31" t="n">
+        <v>117.21</v>
+      </c>
+      <c r="S31" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T31" t="n">
+        <v>8258.57</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="X31" t="n">
+        <v>91.39</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z31" t="n">
         <v>10</v>
       </c>
     </row>
